--- a/data_group/kendall_test_temp_results.xlsx
+++ b/data_group/kendall_test_temp_results.xlsx
@@ -391,10 +391,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.2444838310822125</v>
+        <v>-0.1870045406828517</v>
       </c>
       <c r="D2">
-        <v>0.00461958012695988</v>
+        <v>0.03027209642363868</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.04999910877204668</v>
+        <v>-0.009842344246465882</v>
       </c>
       <c r="D3">
-        <v>0.562415877211336</v>
+        <v>0.9092164387062659</v>
       </c>
     </row>
     <row r="4">
@@ -427,10 +427,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.04606217107346033</v>
+        <v>0.07362073496356479</v>
       </c>
       <c r="D4">
-        <v>0.5935864255684313</v>
+        <v>0.3937028370545466</v>
       </c>
     </row>
     <row r="5">
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.07362073496356479</v>
+        <v>0.09015587329762748</v>
       </c>
       <c r="D5">
-        <v>0.3937028370545466</v>
+        <v>0.2962602423133184</v>
       </c>
     </row>
     <row r="6">
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.07991983528130296</v>
+        <v>0.09094326083734475</v>
       </c>
       <c r="D6">
-        <v>0.3544986049442751</v>
+        <v>0.2920620064890735</v>
       </c>
     </row>
     <row r="7">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.07913244774158569</v>
+        <v>0.2145631045729562</v>
       </c>
       <c r="D12">
-        <v>0.35925972362556</v>
+        <v>0.01292652129052002</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.146847776157271</v>
+        <v>0.2570820317176888</v>
       </c>
       <c r="D13">
-        <v>0.08889006028386012</v>
+        <v>0.002897730334943046</v>
       </c>
     </row>
     <row r="14">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.1862171531431345</v>
+        <v>0.2822784329886415</v>
       </c>
       <c r="D14">
-        <v>0.03097531460803316</v>
+        <v>0.001074362916210253</v>
       </c>
     </row>
     <row r="15">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.1933036410005899</v>
+        <v>0.2610189694162752</v>
       </c>
       <c r="D15">
-        <v>0.02512411129007023</v>
+        <v>0.002494610439642569</v>
       </c>
     </row>
     <row r="16">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.1649576895707682</v>
+        <v>0.1988153537786108</v>
       </c>
       <c r="D16">
-        <v>0.05599282421023016</v>
+        <v>0.02125948674334726</v>
       </c>
     </row>
     <row r="17">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.1035414614728211</v>
+        <v>0.3027505090212905</v>
       </c>
       <c r="D22">
-        <v>0.2303089499537935</v>
+        <v>0.0004523916804846588</v>
       </c>
     </row>
     <row r="23">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.1531468764750091</v>
+        <v>0.2783414952900551</v>
       </c>
       <c r="D23">
-        <v>0.0760202915009667</v>
+        <v>0.001261127433737316</v>
       </c>
     </row>
     <row r="24">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.1696820148090718</v>
+        <v>0.2531450940191025</v>
       </c>
       <c r="D24">
-        <v>0.04931889554048573</v>
+        <v>0.003359495689003972</v>
       </c>
     </row>
     <row r="25">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.1271630876643392</v>
+        <v>0.2043270665566317</v>
       </c>
       <c r="D25">
-        <v>0.1406895544650617</v>
+        <v>0.01792328069347479</v>
       </c>
     </row>
     <row r="26">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.03031442027911492</v>
+        <v>0.07519551004299933</v>
       </c>
       <c r="D26">
-        <v>0.7254360812019292</v>
+        <v>0.3836636241737172</v>
       </c>
     </row>
     <row r="27">
